--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="16.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37469511338697797</v>
+        <v>0.37542473970235907</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33519382716427787</v>
+        <v>0.33555539771302023</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.049300539371165381</v>
+        <v>-0.049518097079960306</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0036359946379937811</v>
+        <v>-0.0036875543590685453</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0058101667759424339</v>
+        <v>0.0057171398343590024</v>
       </c>
       <c r="G3" s="0">
-        <v>0.004876331524122271</v>
+        <v>0.0048894903453974778</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0018893868681817744</v>
+        <v>0.0018792214213587026</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0060169555691567834</v>
+        <v>-0.006025876653705073</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0068763181873693902</v>
+        <v>0.0068763345022799238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33553105358452218</v>
+        <v>0.33697854859635806</v>
       </c>
       <c r="C4" s="0">
-        <v>0.016983141687747658</v>
+        <v>0.018087462375219202</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.017151973134551756</v>
+        <v>0.017008619551720224</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00081303132031646159</v>
+        <v>-0.00081046690958151029</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0015170374970760242</v>
+        <v>0.0015138229561156215</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.031396782279448573</v>
+        <v>-0.0312662698339315</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00071876385709732321</v>
+        <v>-0.00072365190393799213</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0023863484422687598</v>
+        <v>-0.0023863653522662176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.41888256474629593</v>
+        <v>0.42089132554301634</v>
       </c>
       <c r="C5" s="0">
-        <v>0.14018216341750525</v>
+        <v>0.14181312130413135</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.068292503113178096</v>
+        <v>-0.069263952163328507</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00099814123494714781</v>
+        <v>-0.0010179372645796295</v>
       </c>
       <c r="F5" s="0">
-        <v>0.051838740155842264</v>
+        <v>0.051667627415059626</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.044533367169037164</v>
+        <v>-0.044470920224145907</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0032403539143885658</v>
+        <v>0.0032599707586814944</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0013001676447920944</v>
+        <v>-0.0012895395020274172</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0032144328359922092</v>
+        <v>0.0032144066228672608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.24261804931630879</v>
+        <v>0.24225456137181101</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.039500339707668211</v>
+        <v>-0.041630508283888167</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.14609506231248276</v>
+        <v>-0.14589061656652211</v>
       </c>
       <c r="F6" s="0">
-        <v>0.004462269689528957</v>
+        <v>0.0044624420768525873</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0066660135588806086</v>
+        <v>0.0067016051070077579</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0001283372602966709</v>
+        <v>-0.00061063914799859109</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0016690593979490354</v>
+        <v>-0.0016690473566568498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.19277051459983041</v>
+        <v>0.19168677494173642</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.081424227336577559</v>
+        <v>0.08052203921156581</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0092172543167158057</v>
+        <v>-0.0092968708191730684</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16426286574462989</v>
+        <v>-0.16403559773008092</v>
       </c>
       <c r="G7" s="0">
-        <v>0.010316671741703001</v>
+        <v>0.010348070066637819</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0058372654468811166</v>
+        <v>0.0058401257732731528</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.026054420819705632</v>
+        <v>0.026054447067702602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.12193880366267962</v>
+        <v>-0.12065310654561623</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.33731193345635274</v>
+        <v>-0.33505167420958759</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.060991587569142511</v>
+        <v>0.060656087152759101</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0062822948633174582</v>
+        <v>0.0062803886032105419</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00029123603792837079</v>
+        <v>-0.00029066665655416029</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.040977491544592667</v>
+        <v>-0.04053154365659152</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0034025396560962151</v>
+        <v>-0.0034024727205890781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.22871139360829923</v>
+        <v>-0.22826770514889611</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.11201885902687762</v>
+        <v>-0.11148632716739967</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0020856912482894213</v>
+        <v>-0.0020657063997400267</v>
       </c>
       <c r="F9" s="0">
-        <v>0.025387417889485057</v>
+        <v>0.024025663982434688</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.011468271199631485</v>
+        <v>-0.011484441994735093</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00012844370024223828</v>
+        <v>0.00012201509625945741</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.006035385538531236</v>
+        <v>-0.0060455320499925996</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00068024452201714825</v>
+        <v>-0.00068027007010662555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.10860634913538125</v>
+        <v>0.11609940396175386</v>
       </c>
       <c r="C10" s="0">
-        <v>0.37172675288943385</v>
+        <v>0.3788349171379255</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0057359781763859936</v>
+        <v>-0.0055202310561521294</v>
       </c>
       <c r="F10" s="0">
-        <v>-3.5557441954998015e-05</v>
+        <v>-3.3606076880046752e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00039084671930981855</v>
+        <v>-0.00039093208496071991</v>
       </c>
       <c r="I10" s="0">
-        <v>0.01557246953602405</v>
+        <v>0.015492494425965604</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.054010161731979589</v>
+        <v>-0.054206618171112504</v>
       </c>
       <c r="K10" s="0">
-        <v>0.010191064387852999</v>
+        <v>0.010191084935864209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.51113631459255826</v>
+        <v>0.51852394959614134</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.30754217144445195</v>
+        <v>0.30676337503527989</v>
       </c>
       <c r="E11" s="0">
-        <v>0.021100403930869017</v>
+        <v>0.021041715469862755</v>
       </c>
       <c r="F11" s="0">
-        <v>0.055204349255656558</v>
+        <v>0.05600913289980488</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.039543186597486554</v>
+        <v>-0.039657589241293763</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0036202052455028156</v>
+        <v>-0.0036299083408582065</v>
       </c>
       <c r="I11" s="0">
-        <v>0.052870795169132546</v>
+        <v>0.052922128285862242</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0089756375000563104</v>
+        <v>0.0089756915257297176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.35312779464729022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.10489261897251431</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00031796554140978844</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00052055949949117366</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00024725262770803068</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.015328753150769961</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044724936239777413</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="16.24609375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37542473970235907</v>
+        <v>0.37511873367288906</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33555539771302023</v>
+        <v>0.33513141562005477</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.049518097079960306</v>
+        <v>-0.049706206854344216</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0036875543590685453</v>
+        <v>-0.0036628209770018932</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0057171398343590024</v>
+        <v>0.0057727143022566806</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0048894903453974778</v>
+        <v>0.0049223451361244345</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0018792214213587026</v>
+        <v>0.0018848630341420417</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.006025876653705073</v>
+        <v>-0.0060745498870213004</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0068763345022799238</v>
+        <v>0.0068763371930099515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33697854859635806</v>
+        <v>0.3398000258916164</v>
       </c>
       <c r="C4" s="0">
-        <v>0.018087462375219202</v>
+        <v>0.021131276706261845</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.017008619551720224</v>
+        <v>0.016993030113860056</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00081046690958151029</v>
+        <v>-0.00080880256422397718</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0015138229561156215</v>
+        <v>0.001494285286518373</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0312662698339315</v>
+        <v>-0.031029772145189816</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00072365190393799213</v>
+        <v>-0.00072497837851678132</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0023863653522662176</v>
+        <v>-0.0023864287471480616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.42089132554301634</v>
+        <v>0.42045328822472638</v>
       </c>
       <c r="C5" s="0">
-        <v>0.14181312130413135</v>
+        <v>0.13781899834494968</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.069263952163328507</v>
+        <v>-0.067797608108343593</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0010179372645796295</v>
+        <v>-0.00097574602629793127</v>
       </c>
       <c r="F5" s="0">
-        <v>0.051667627415059626</v>
+        <v>0.05093921997843489</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.044470920224145907</v>
+        <v>-0.044484383223914299</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0032599707586814944</v>
+        <v>0.0032057585502615225</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0012895395020274172</v>
+        <v>-0.0012674220301618286</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0032144066228672608</v>
+        <v>0.0032144448481815635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.24225456137181101</v>
+        <v>0.24437328528961857</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.041630508283888167</v>
+        <v>-0.038563482645687923</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.14589061656652211</v>
+        <v>-0.14622661747465529</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0044624420768525873</v>
+        <v>0.0044530894027330114</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0067016051070077579</v>
+        <v>0.0067141524008284452</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00061063914799859109</v>
+        <v>-0.00078806057509640327</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0016690473566568498</v>
+        <v>-0.0016690840432296294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.19168677494173642</v>
+        <v>0.19354933226849766</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.08052203921156581</v>
+        <v>0.079386286847387216</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0092968708191730684</v>
+        <v>-0.0094007222632758059</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16403559773008092</v>
+        <v>-0.16304841326901803</v>
       </c>
       <c r="G7" s="0">
-        <v>0.010348070066637819</v>
+        <v>0.010372922180675242</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0058401257732731528</v>
+        <v>0.0058115497280079352</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.026054447067702602</v>
+        <v>0.026054423755102557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.12065310654561623</v>
+        <v>-0.1298571729593907</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.33505167420958759</v>
+        <v>-0.34672164810649775</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.060656087152759101</v>
+        <v>0.060989409461873964</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0062803886032105419</v>
+        <v>0.0062853611910569001</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00029066665655416029</v>
+        <v>-0.00029074301858538778</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.04053154365659152</v>
+        <v>-0.040266439982612263</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0034024727205890781</v>
+        <v>-0.0034024447731238194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.22826770514889611</v>
+        <v>-0.23706649957549958</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.11148632716739967</v>
+        <v>-0.11087531297933975</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0020657063997400267</v>
+        <v>-0.0020784808541787266</v>
       </c>
       <c r="F9" s="0">
-        <v>0.024025663982434688</v>
+        <v>0.023825691545192661</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.011484441994735093</v>
+        <v>-0.011483521352526817</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00012201509625945741</v>
+        <v>0.00012065724046470295</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0060455320499925996</v>
+        <v>-0.0060380910332545569</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00068027007010662555</v>
+        <v>-0.00068026918246638646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.11609940396175386</v>
+        <v>0.10809066088625657</v>
       </c>
       <c r="C10" s="0">
-        <v>0.3788349171379255</v>
+        <v>0.37865801802566712</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0055202310561521294</v>
+        <v>-0.0058534669693046971</v>
       </c>
       <c r="F10" s="0">
-        <v>-3.3606076880046752e-05</v>
+        <v>-3.9075294615392752e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00039093208496071991</v>
+        <v>-0.00039093214756817489</v>
       </c>
       <c r="I10" s="0">
-        <v>0.015492494425965604</v>
+        <v>0.015605771080521837</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.054206618171112504</v>
+        <v>-0.053014162480717823</v>
       </c>
       <c r="K10" s="0">
-        <v>0.010191084935864209</v>
+        <v>0.010191008247773303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.51852394959614134</v>
+        <v>0.51373871505239643</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.30676337503527989</v>
+        <v>0.30752868264789862</v>
       </c>
       <c r="E11" s="0">
-        <v>0.021041715469862755</v>
+        <v>0.021277720350903744</v>
       </c>
       <c r="F11" s="0">
-        <v>0.05600913289980488</v>
+        <v>0.057923286098221748</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.039657589241293763</v>
+        <v>-0.039786794996939975</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0036299083408582065</v>
+        <v>-0.0036342013471938476</v>
       </c>
       <c r="I11" s="0">
-        <v>0.052922128285862242</v>
+        <v>0.053363734579631415</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0089756915257297176</v>
+        <v>0.0089756268336181888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.35312779464729022</v>
+        <v>0.27583052808543862</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.10489261897251431</v>
+        <v>-0.11665443917748342</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00031796554140978844</v>
+        <v>0.00063186322142382012</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00052055949949117366</v>
+        <v>-0.016414229336972671</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00024725262770803068</v>
+        <v>-0.014203567750564507</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.015328753150769961</v>
+        <v>-0.046473078595292872</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044724936239777413</v>
+        <v>-0.044794735328068158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.16556214004863862</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.3474198332267901</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.055116449376665773</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.26837385268800396</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.012662695461955111</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00023338559209819129</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.012705692424213879</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.049495815356919104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.076863379987915426</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.06262954255109604</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0020396982122886714</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00069972125036505393</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00026572411038825892</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.023524374621184285</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-7.114753617740166e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.24609375" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.37511873367288906</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.33513141562005477</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.3398000258916164</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.42045328822472638</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.24437328528961857</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.19354933226849766</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>-0.1298571729593907</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.23706649957549958</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.10809066088625657</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.51373871505239643</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.27583052808543862</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.16556214004863862</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.076863379987915426</v>
+        <v>0.075888729844138136</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.06262954255109604</v>
+        <v>-0.057851925454490825</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0020396982122886714</v>
+        <v>-0.0018808164688729288</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00069972125036505393</v>
+        <v>0.0030466371356533328</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00026572411038825892</v>
+        <v>-0.0064989363443108718</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.023524374621184285</v>
+        <v>-0.019423910554901842</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-7.114753617740166e-05</v>
+        <v>-0.00706445851757731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.29569199940733276</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.036037454582174215</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0098355846836473901</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.051064419771922991</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.01019454307777275</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.45832364521144275</v>
       </c>
     </row>
   </sheetData>
